--- a/pred_ohlcv/54_21/2019-10-15 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 XRP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3559481.7117925</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3067250.70138649</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3062355.11028649</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3062355.11028649</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3310304.17308649</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3310304.17308649</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3310304.17308649</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3301155.84328649</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3411460.48790459</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3360245.09770459</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3360802.66290459</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3360802.66290459</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3360802.66290459</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3360802.66290459</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -964,7 +964,7 @@
         <v>3110993.159480791</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>3110993.159480791</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>3110993.159480791</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>3110993.159480791</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>3110993.159480791</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>3110993.159480791</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>3110993.159480791</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>3597365.709556991</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>3597365.709556991</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>3585343.697556991</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>3599349.755056991</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>3595391.755056991</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>3595391.755056991</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>3599899.401456991</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>3591451.344673611</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>3591451.344673611</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>3508386.899987901</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>3508386.899987901</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>3518658.704687901</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>3518658.704687901</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>3551567.453054561</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>3551564.421154561</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>3528371.194554561</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>3096844.195583131</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>3096844.195583131</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3580524.320668841</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>5160013.629458511</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>5159822.762758511</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>5113849.495358511</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>4778918.890120422</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>6405394.032325171</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>6604805.734425171</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>6604805.734425171</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>6604805.734425171</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>6395417.150125171</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>6445488.478325171</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>6842953.569425171</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>6842953.569425171</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>6842953.569425171</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>6842953.569425171</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>6737358.095095351</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>6737358.095095351</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>6737358.095095351</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>6737358.095095351</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>6737358.095095351</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>6874367.493195351</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>6874367.493195351</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>6947154.233095352</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>6927174.961195352</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>6906330.019169621</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>6907869.600869621</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>6907869.600869621</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>6981450.991969621</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>6956855.504569621</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>7031758.60126962</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>6983146.86906962</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>7050473.77916962</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>6945587.05646962</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>6945587.05646962</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>6945587.05646962</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>6939846.56536962</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>6939846.56536962</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>7136029.21466962</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>7722901.79537487</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>7722901.79537487</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>7722901.79537487</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>7721220.999674871</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>8038086.61009856</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>8244131.58585985</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>8062441.21075985</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>8174055.3735025</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>8072925.981402501</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>7690241.8307025</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>7690241.8307025</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>7690241.8307025</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>7690241.8307025</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>7690241.8307025</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>7690241.8307025</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>7690241.8307025</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>7213770.752802501</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>7213770.752802501</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>7213770.752802501</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>7213770.752802501</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>7213770.752802501</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>7213770.752802501</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>7213770.752802501</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>7208500.6695025</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>7208500.6695025</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>7460238.05810716</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>7460238.05810716</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>7460238.05810716</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>7460238.05810716</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>7460238.05810716</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>7530920.18620716</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>7530920.18620716</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>7530920.18620716</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>7358309.70337819</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>7365235.34924922</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>7362945.06044922</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>7362945.06044922</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>7362945.06044922</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>7362945.06044922</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>6308990.258902569</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>6304625.850602569</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>6304625.850602569</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>6310823.435646749</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>6310823.435646749</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>6247258.315546749</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>6275825.175946749</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>7638207.52491203</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>7638207.52491203</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>7638207.52491203</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>7470468.81551203</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>7591312.14251203</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>7591312.14251203</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>7588078.97491203</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>7621891.29371203</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>6735188.66918332</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>7352742.087555151</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>7352742.087555151</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>7363705.195055151</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>7240318.398041551</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>7240318.398041551</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>7240318.398041551</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>7206302.294641551</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>7242227.185941551</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>8374623.257028192</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>8374623.257028192</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>8374623.257028192</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>7978975.375951022</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>9826691.337200191</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>9714865.053800192</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>9714865.053800192</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>9857765.417500192</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>9857765.417500192</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>9857765.417500192</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>9857765.417500192</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>9857765.417500192</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>9742400.500800192</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>9742400.500800192</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>9437120.608800191</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>9265379.987586241</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>9350638.744386241</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>9633573.52428624</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>10180595.21428624</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>9576983.80278624</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>9576983.80278624</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>9496539.70438624</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>9550839.97838624</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>9550839.97838624</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>9550839.97838624</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>9550839.97838624</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>9377549.281586241</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>9377549.281586241</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>9377549.281586241</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>9377549.281586241</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>9333304.841386242</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>7392903.072311262</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>7392903.072311262</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>7392903.072311262</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>7349225.067911262</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>7349226.067911262</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>7349226.067911262</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>7348981.951711262</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>7348981.951711262</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>7438205.714411261</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>7438813.537611262</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>7450993.959011262</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>7356501.656963621</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>7340407.369163621</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>7343415.369163621</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>7343415.369163621</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>7343415.369163621</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>7342411.369163621</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>7347387.585763621</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>7347387.585763621</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>7347387.585763621</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>7347387.585763621</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>7347387.585763621</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>7324816.059463621</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>7324816.059463621</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>7324816.059463621</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>7326575.943163621</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>7326575.943163621</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>7326575.943163621</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>7324763.268363621</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>7324763.268363621</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>7385520.081656361</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>7385520.081656361</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>7384800.388156361</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>7384800.388156361</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>8341177.736190027</v>
       </c>
       <c r="H1174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>8391816.425444726</v>
       </c>
       <c r="H1177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>8720789.388731096</v>
       </c>
       <c r="H1178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>8720789.388731096</v>
       </c>
       <c r="H1179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>8531238.742840195</v>
       </c>
       <c r="H1180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>8659872.070440196</v>
       </c>
       <c r="H1181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>8699769.461363416</v>
       </c>
       <c r="H1182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>8675293.720463416</v>
       </c>
       <c r="H1183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>8675293.720463416</v>
       </c>
       <c r="H1184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>8675293.720463416</v>
       </c>
       <c r="H1185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>8675293.720463416</v>
       </c>
       <c r="H1186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>8675293.720463416</v>
       </c>
       <c r="H1187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>8733202.555463417</v>
       </c>
       <c r="H1188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>9027155.670963416</v>
       </c>
       <c r="H1189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>9027155.670963416</v>
       </c>
       <c r="H1190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>9027155.670963416</v>
       </c>
       <c r="H1191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>9027155.670963416</v>
       </c>
       <c r="H1192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>9009369.302563416</v>
       </c>
       <c r="H1193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>9009369.302563416</v>
       </c>
       <c r="H1194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>9009369.302563416</v>
       </c>
       <c r="H1195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>8372197.605463415</v>
       </c>
       <c r="H1196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>8353512.836163416</v>
       </c>
       <c r="H1197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>8124718.323663415</v>
       </c>
       <c r="H1198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>8228440.156263416</v>
       </c>
       <c r="H1199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>8228440.156263416</v>
       </c>
       <c r="H1200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>8388165.485863416</v>
       </c>
       <c r="H1201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>8187018.628663415</v>
       </c>
       <c r="H1202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>8187018.628663415</v>
       </c>
       <c r="H1203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>8187018.628663415</v>
       </c>
       <c r="H1204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>8187018.628663415</v>
       </c>
       <c r="H1205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>8187018.628663415</v>
       </c>
       <c r="H1206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>8187018.628663415</v>
       </c>
       <c r="H1207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>8180221.862863415</v>
       </c>
       <c r="H1208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>8180221.862863415</v>
       </c>
       <c r="H1209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>8180221.862863415</v>
       </c>
       <c r="H1210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>8432859.096449135</v>
       </c>
       <c r="H1211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>8404862.298549134</v>
       </c>
       <c r="H1212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>8500546.406591585</v>
       </c>
       <c r="H1213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>8500546.406591585</v>
       </c>
       <c r="H1214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>8500546.406591585</v>
       </c>
       <c r="H1215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>8500546.406591585</v>
       </c>
       <c r="H1216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>8500546.406591585</v>
       </c>
       <c r="H1217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>8477585.268791584</v>
       </c>
       <c r="H1218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>8477585.268791584</v>
       </c>
       <c r="H1219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>8477662.191868505</v>
       </c>
       <c r="H1220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>8470215.936468504</v>
       </c>
       <c r="H1221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>8494190.620229185</v>
       </c>
       <c r="H1222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>8407594.435430335</v>
       </c>
       <c r="H1223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>8517252.795687474</v>
       </c>
       <c r="H1224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>8390943.631367825</v>
       </c>
       <c r="H1225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-15 XRP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-15 XRP ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3559481.7117925</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3067250.70138649</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3062355.11028649</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3062355.11028649</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>3310304.17308649</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>3310304.17308649</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>3310304.17308649</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>3301155.84328649</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>3411460.48790459</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,7 +704,7 @@
         <v>3360245.09770459</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>3360802.66290459</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>3360802.66290459</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>3360802.66290459</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>3360802.66290459</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -964,7 +964,7 @@
         <v>3110993.159480791</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>3110993.159480791</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>3110993.159480791</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>3110993.159480791</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>3110993.159480791</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>3597365.709556991</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>3518658.704687901</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>3518658.704687901</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>3528371.194554561</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>3448363.296683131</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>3096844.195583131</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>3580524.320668841</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>5160013.629458511</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>6405394.032325171</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>6604805.734425171</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>6604805.734425171</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>6604805.734425171</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>6395417.150125171</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>6445488.478325171</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>6842953.569425171</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>6842953.569425171</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>6842953.569425171</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>6842953.569425171</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>6737358.095095351</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>6737358.095095351</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>6737358.095095351</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>6737358.095095351</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>6737358.095095351</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>6874367.493195351</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>6874367.493195351</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>6947154.233095352</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>6927174.961195352</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>6906330.019169621</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>6907869.600869621</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>6907869.600869621</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>6981450.991969621</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>6956855.504569621</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>7031758.60126962</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>6983146.86906962</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>7050473.77916962</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>6945587.05646962</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>6945587.05646962</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>6945587.05646962</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>6939846.56536962</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>6939846.56536962</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>7136029.21466962</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>7722901.79537487</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>7722901.79537487</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>7722901.79537487</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>7721220.999674871</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>8038086.61009856</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>8244131.58585985</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>8062441.21075985</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>8174055.3735025</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>8072925.981402501</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>7690241.8307025</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>7690241.8307025</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>7690241.8307025</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>7690241.8307025</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>7690241.8307025</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>7690241.8307025</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>7690241.8307025</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>7213770.752802501</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>7213770.752802501</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>7213770.752802501</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>7213770.752802501</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>7213770.752802501</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>7213770.752802501</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>7213770.752802501</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>7208500.6695025</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>7208500.6695025</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>7460238.05810716</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>7460238.05810716</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>7460238.05810716</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>7460238.05810716</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>7460238.05810716</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>7530920.18620716</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>7530920.18620716</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>7530920.18620716</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>7358309.70337819</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>7365235.34924922</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>7362945.06044922</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>7362945.06044922</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>7362945.06044922</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>7362945.06044922</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>6308990.258902569</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>6304625.850602569</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>6304625.850602569</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>6310823.435646749</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>6310823.435646749</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>6247258.315546749</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>6275825.175946749</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>7638207.52491203</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>7638207.52491203</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>7638207.52491203</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>7470468.81551203</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>7591312.14251203</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>7591312.14251203</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>7588078.97491203</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>7621891.29371203</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>6735188.66918332</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>7352742.087555151</v>
       </c>
       <c r="H706">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>7352742.087555151</v>
       </c>
       <c r="H707">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>7363705.195055151</v>
       </c>
       <c r="H708">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>7240318.398041551</v>
       </c>
       <c r="H709">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>7240318.398041551</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>7240318.398041551</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>7206302.294641551</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>7242227.185941551</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>8374623.257028192</v>
       </c>
       <c r="H776">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>8374623.257028192</v>
       </c>
       <c r="H777">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>8374623.257028192</v>
       </c>
       <c r="H778">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>7978975.375951022</v>
       </c>
       <c r="H779">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>9826691.337200191</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>9714865.053800192</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>9714865.053800192</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>9857765.417500192</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>9857765.417500192</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>9857765.417500192</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>9857765.417500192</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>9857765.417500192</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>9742400.500800192</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>9742400.500800192</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>9437120.608800191</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>9265379.987586241</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>9350638.744386241</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>9633573.52428624</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>10180595.21428624</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>9576983.80278624</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>9576983.80278624</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>9496539.70438624</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>9550839.97838624</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>9550839.97838624</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>9550839.97838624</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>9550839.97838624</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>9377549.281586241</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>9377549.281586241</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>9377549.281586241</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>9377549.281586241</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>9333304.841386242</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>7392903.072311262</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>7392903.072311262</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>7392903.072311262</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>7349225.067911262</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>7349226.067911262</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>7349226.067911262</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>7348981.951711262</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>7348981.951711262</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>7438205.714411261</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>7438813.537611262</v>
       </c>
       <c r="H935">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>7450993.959011262</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>7356501.656963621</v>
       </c>
       <c r="H1059">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>7340407.369163621</v>
       </c>
       <c r="H1061">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>7343415.369163621</v>
       </c>
       <c r="H1062">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>7343415.369163621</v>
       </c>
       <c r="H1063">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>7343415.369163621</v>
       </c>
       <c r="H1064">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>7342411.369163621</v>
       </c>
       <c r="H1065">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>7347387.585763621</v>
       </c>
       <c r="H1066">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>7347387.585763621</v>
       </c>
       <c r="H1067">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>7347387.585763621</v>
       </c>
       <c r="H1068">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>7347387.585763621</v>
       </c>
       <c r="H1069">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>7347387.585763621</v>
       </c>
       <c r="H1070">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>7324816.059463621</v>
       </c>
       <c r="H1071">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>7324816.059463621</v>
       </c>
       <c r="H1072">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>7324816.059463621</v>
       </c>
       <c r="H1073">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>7326575.943163621</v>
       </c>
       <c r="H1074">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>7326575.943163621</v>
       </c>
       <c r="H1075">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>7326575.943163621</v>
       </c>
       <c r="H1076">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>7324763.268363621</v>
       </c>
       <c r="H1077">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>7324763.268363621</v>
       </c>
       <c r="H1078">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>7385520.081656361</v>
       </c>
       <c r="H1079">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>7385520.081656361</v>
       </c>
       <c r="H1080">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>7384800.388156361</v>
       </c>
       <c r="H1081">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>7384800.388156361</v>
       </c>
       <c r="H1083">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>8720789.388731096</v>
       </c>
       <c r="H1179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>8531238.742840195</v>
       </c>
       <c r="H1180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>8659872.070440196</v>
       </c>
       <c r="H1181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>8699769.461363416</v>
       </c>
       <c r="H1182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>8675293.720463416</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>8675293.720463416</v>
       </c>
       <c r="H1184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>8675293.720463416</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>8675293.720463416</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31254,7 +31254,7 @@
         <v>8675293.720463416</v>
       </c>
       <c r="H1187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1188" spans="1:8">
@@ -31280,7 +31280,7 @@
         <v>8733202.555463417</v>
       </c>
       <c r="H1188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1189" spans="1:8">
@@ -31306,7 +31306,7 @@
         <v>9027155.670963416</v>
       </c>
       <c r="H1189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1190" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>9027155.670963416</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>9027155.670963416</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>9027155.670963416</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>9009369.302563416</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31436,7 +31436,7 @@
         <v>9009369.302563416</v>
       </c>
       <c r="H1194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1195" spans="1:8">
@@ -31462,7 +31462,7 @@
         <v>9009369.302563416</v>
       </c>
       <c r="H1195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1196" spans="1:8">
@@ -31488,7 +31488,7 @@
         <v>8372197.605463415</v>
       </c>
       <c r="H1196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1197" spans="1:8">
@@ -31514,7 +31514,7 @@
         <v>8353512.836163416</v>
       </c>
       <c r="H1197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1198" spans="1:8">
@@ -31540,7 +31540,7 @@
         <v>8124718.323663415</v>
       </c>
       <c r="H1198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1199" spans="1:8">
@@ -31566,7 +31566,7 @@
         <v>8228440.156263416</v>
       </c>
       <c r="H1199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1200" spans="1:8">
@@ -31592,7 +31592,7 @@
         <v>8228440.156263416</v>
       </c>
       <c r="H1200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1201" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>8388165.485863416</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>8187018.628663415</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>8187018.628663415</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31696,7 +31696,7 @@
         <v>8187018.628663415</v>
       </c>
       <c r="H1204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1205" spans="1:8">
@@ -31722,7 +31722,7 @@
         <v>8187018.628663415</v>
       </c>
       <c r="H1205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1206" spans="1:8">
@@ -31748,7 +31748,7 @@
         <v>8187018.628663415</v>
       </c>
       <c r="H1206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1207" spans="1:8">
@@ -31774,7 +31774,7 @@
         <v>8187018.628663415</v>
       </c>
       <c r="H1207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1208" spans="1:8">
@@ -31800,7 +31800,7 @@
         <v>8180221.862863415</v>
       </c>
       <c r="H1208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1209" spans="1:8">
@@ -31826,7 +31826,7 @@
         <v>8180221.862863415</v>
       </c>
       <c r="H1209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1210" spans="1:8">
@@ -31852,7 +31852,7 @@
         <v>8180221.862863415</v>
       </c>
       <c r="H1210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1211" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>8432859.096449135</v>
       </c>
       <c r="H1211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>8404862.298549134</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>8500546.406591585</v>
       </c>
       <c r="H1213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>8500546.406591585</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -31982,7 +31982,7 @@
         <v>8500546.406591585</v>
       </c>
       <c r="H1215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1216" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>8500546.406591585</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>8500546.406591585</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>8477585.268791584</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>8477585.268791584</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>8477662.191868505</v>
       </c>
       <c r="H1220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>8470215.936468504</v>
       </c>
       <c r="H1221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>8494190.620229185</v>
       </c>
       <c r="H1222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>8407594.435430335</v>
       </c>
       <c r="H1223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>8517252.795687474</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>8390943.631367825</v>
       </c>
       <c r="H1225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
